--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276621</v>
+        <v>373308.7577998815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294663</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>12.92549025883184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1218,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>34.11888750173132</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.91618947337665</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="14">
@@ -1604,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>26.92232807701202</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="15">
@@ -1689,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1926,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>42.20118209180435</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2123,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2263,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2403,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>35.29189475116408</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>89.51051864809693</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -2415,7 +2417,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,22 +2447,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2564,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.57647572458279</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2795,58 +2797,58 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>12.162665399307</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>168.3874136423282</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>157.207044420599</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.13060206523731</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>8.583694061601907</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>11.01727716149734</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.8004988171164</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>208.2792470398066</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3822,25 +3824,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>16.26134662529102</v>
       </c>
       <c r="G42" t="n">
-        <v>107.3632774452655</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>50.46697834767983</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D45" t="n">
-        <v>39.58387696184059</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>68.2764642733967</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U2" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V2" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W2" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F5" t="n">
-        <v>28.29275017052741</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>28.29275017052741</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>28.29275017052741</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N5" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>68.2764642733967</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F8" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G8" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H8" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F11" t="n">
-        <v>135.1878417126385</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G11" t="n">
-        <v>95.20412760976917</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M11" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1178524655551</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O12" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="H13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>108.260178376266</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C14" t="n">
-        <v>108.260178376266</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D14" t="n">
-        <v>108.260178376266</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E14" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="F14" t="n">
-        <v>68.2764642733967</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="G14" t="n">
-        <v>43.15042425981653</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E15" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F15" t="n">
-        <v>83.13413836268582</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G15" t="n">
-        <v>43.15042425981653</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>45.45613755060546</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5859,22 +5861,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5941,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>454.3181732824481</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="C24" t="n">
-        <v>454.3181732824481</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="D24" t="n">
-        <v>454.3181732824481</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="E24" t="n">
-        <v>418.6697947459187</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="F24" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X24" t="n">
-        <v>454.3181732824481</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y24" t="n">
-        <v>454.3181732824481</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,28 +6247,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y26" t="n">
         <v>506.1786963984129</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>273.858482543704</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>125.0774898247174</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.2549444941228</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C30" t="n">
-        <v>521.2549444941228</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>793.9688589022239</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>550.5200822581238</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>704.0926316992804</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>501.9060370580465</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>501.9060370580465</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>501.9060370580465</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>501.9060370580465</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
         <v>829.5248650203655</v>
@@ -6892,16 +6894,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>738.7078125165641</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C35" t="n">
-        <v>738.7078125165641</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>292.8299288097498</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>85.06963004479587</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7132,10 +7134,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.40970589960398</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C39" t="n">
-        <v>30.40970589960398</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7290,13 +7292,13 @@
         <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>446.0215048700907</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>238.1700046645579</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>30.40970589960398</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="40">
@@ -7318,19 +7320,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>707.0094349923255</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>468.1548961435668</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.7718183255803</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>331.0337992073036</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="D42" t="n">
-        <v>331.0337992073036</v>
+        <v>195.6983334202631</v>
       </c>
       <c r="E42" t="n">
-        <v>331.0337992073036</v>
+        <v>36.46087841480755</v>
       </c>
       <c r="F42" t="n">
-        <v>331.0337992073036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>222.5860442120859</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>109.2169086196652</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>378.3761730603275</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>612.4775065859958</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>846.5788401116641</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.38436553875449</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>38.38436553875449</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>42.35474834916943</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>81.54278654139161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>120.7308247336138</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>118.3517937444931</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>118.3517937444931</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>118.3517937444931</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>118.3517937444931</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>78.36807964162378</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>78.36807964162378</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
-        <v>38.38436553875449</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.13413836268582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C45" t="n">
-        <v>43.15042425981653</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>120.7308247336138</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>83.13413836268582</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8231,7 +8233,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>269.2175241529953</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
-        <v>176.5389081776</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8456,19 +8458,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>175.8259673720848</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
-        <v>171.9589358120561</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8930,16 +8932,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9021,10 +9023,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>234.2624212824313</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>269.2175241529953</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,16 +11381,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>353.8529234464008</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>344.8563210650246</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>191.8224945792435</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>197.5503993115741</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.01338019972509</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>372.0105669137222</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23106,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>78.11655673476514</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>383.9598562683348</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2037335653947</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>132.7973439262303</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="14">
@@ -23492,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>355.0080419952498</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>390.4279579016907</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="15">
@@ -23577,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
-        <v>122.7796016274118</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23668,13 +23670,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23814,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>244.1178472646865</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>21.14182795086677</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,16 +24101,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24151,7 +24153,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,10 +24253,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>116.0654025766999</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24291,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>122.3531857042369</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>55.55869374528694</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24379,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717804</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24497,7 +24499,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>10.82015712683229</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24619,7 +24621,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24683,16 +24685,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>302.9738112079013</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24725,16 +24727,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>145.4824150560939</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,13 +24818,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>64.4131735070971</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24886,13 +24888,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>151.7265451152921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>14.47612668323879</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.40258158463</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>103.6517501748946</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>331.6961560838159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>126.3262400017133</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25530,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>28.88219696018791</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25567,13 +25569,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.958691616247</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25710,25 +25712,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>128.8078657680929</v>
       </c>
       <c r="G42" t="n">
-        <v>29.98023971794514</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25804,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>319.8175627926938</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>335.7709603083737</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D45" t="n">
-        <v>107.8611886027982</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26023,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>138.6379206569481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091871</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042948</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="M2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="N2" t="n">
-        <v>91388.36989223279</v>
-      </c>
       <c r="O2" t="n">
-        <v>90796.17800832073</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>65132.5396826126</v>
+        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.63236844941</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.63236844941</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840839</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836435</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.63236844941</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800368</v>
+        <v>8626.861344417164</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488328</v>
+        <v>23416.56734866138</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488327</v>
+        <v>23416.56734866138</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866137</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866137</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.5477991866</v>
+        <v>14225.1551586564</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.02308880373</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912876</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="J6" t="n">
-        <v>57830.70615532495</v>
+        <v>56640.67194913785</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912871</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="L6" t="n">
         <v>68187.59005912874</v>
       </c>
       <c r="M6" t="n">
+        <v>68187.59005912876</v>
+      </c>
+      <c r="N6" t="n">
         <v>68187.59005912875</v>
       </c>
-      <c r="N6" t="n">
-        <v>68187.59005912872</v>
-      </c>
       <c r="O6" t="n">
-        <v>67930.15896609981</v>
+        <v>20807.71184166495</v>
       </c>
       <c r="P6" t="n">
-        <v>56760.20759488329</v>
+        <v>68187.59005912876</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35176,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>100.2880138681011</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>37.98452839772582</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998815</v>
+        <v>267779.7902310984</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956402</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859927</v>
+        <v>5764697.373081759</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.88091821707973</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.12502610536669</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>16.93162886246722</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.87161743162455</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>117.3828121222395</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92232807701202</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="16">
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,64 +1855,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1946,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>31.99737481079344</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -2140,7 +2140,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,67 +2326,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>89.51051864809693</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>78.57647572458279</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>172.8939967425722</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2733,37 +2733,37 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2851,7 +2851,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>168.3874136423282</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>63.88882306452232</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,14 +3265,14 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3280,58 +3280,58 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>8.583694061601907</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>62.4162677022923</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.8004988171164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3681,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>16.26134662529102</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3918,49 +3918,49 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>241.0142888776591</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.46697834767983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>121.8591222504766</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>121.8591222504766</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>121.8591222504766</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>121.8591222504766</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>121.8591222504766</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X2" t="n">
-        <v>77.28117035226589</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.70321845405519</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>4.284706443124001</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V3" t="n">
-        <v>4.284706443124001</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>4.284706443124001</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>4.284706443124001</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E5" t="n">
-        <v>166.4370741486873</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>176.5286895169144</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D8" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E8" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F8" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>131.9507376187037</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C9" t="n">
-        <v>131.9507376187037</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9507376187037</v>
+        <v>297.0870952088395</v>
       </c>
       <c r="E9" t="n">
-        <v>87.37278572049297</v>
+        <v>137.849640203384</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.9507376187037</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>149.3344187320537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5633,13 +5633,13 @@
         <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>657.1497008972277</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>122.6530896684844</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5855,25 +5855,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5955,7 +5955,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
         <v>506.1786963984129</v>
@@ -5980,7 +5980,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>452.8495312167552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>452.8495312167552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>452.8495312167552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>452.8495312167552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>660.701031422288</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>660.701031422288</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>452.8495312167552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>452.8495312167552</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6165,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>273.858482543704</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C27" t="n">
-        <v>99.40545326257703</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D27" t="n">
-        <v>99.40545326257703</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E27" t="n">
-        <v>99.40545326257703</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F27" t="n">
-        <v>99.40545326257703</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>99.40545326257703</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>99.40545326257703</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>514.8298807641179</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>514.8298807641179</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>514.8298807641179</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="X27" t="n">
-        <v>481.618781308658</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y27" t="n">
-        <v>273.858482543704</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>376.1934816808115</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>132.7447050367114</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>793.9688589022239</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>550.5200822581238</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,10 +6788,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>166.6823665696193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>27.95154115223485</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>195.6983334202631</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>36.46087841480755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>569.2254314512334</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,7 +7733,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
         <v>486.8488635328713</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8777,19 +8777,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10436,13 +10436,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,10 +11144,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11156,10 +11156,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353.8529234464008</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.4177255634863</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>187.8163559756081</v>
+        <v>114.7662707668343</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>389.9444168792442</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,19 +22916,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>368.0044283100869</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,19 +23105,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>27.68640027114436</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23162,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23342,16 +23342,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>10.49235770196768</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I13" t="n">
-        <v>132.7973439262303</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0080419952498</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="16">
@@ -23670,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,10 +23743,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23816,10 +23816,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>219.6976083501262</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23946,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>55.55869374528694</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.82015712683229</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>27.27073195224943</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24584,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24621,7 +24621,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>302.9738112079013</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24812,13 +24812,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>64.4131735070971</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>141.8841621389552</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>103.6517501748946</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25286,19 +25286,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25438,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>160.679581861839</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.88219696018791</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25569,13 +25569,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,10 +25590,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,13 +25681,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>128.8078657680929</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>113.6687527430239</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.7709603083737</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="G2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="I2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="L2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="I2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="O2" t="n">
         <v>91388.3698922328</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840839</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417164</v>
+        <v>-58427.45209245946</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866138</v>
+        <v>22341.97943908829</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.56734866138</v>
+        <v>22341.9794390883</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.57943908831</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.1551586564</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913785</v>
+        <v>-7090.363160017934</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908826</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908832</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166495</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.5794390883</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330019</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37876,10 +37876,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267779.7902310984</v>
+        <v>361972.0568565574</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764697.373081759</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>111.1751113141405</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2131257424249</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>117.3828121222395</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
     </row>
     <row r="11">
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>189.6723709928539</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>85.68170746940429</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>31.99737481079344</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
     </row>
     <row r="21">
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>85.6817074694044</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>172.8939967425722</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>220.2131257424249</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>56.17030901074575</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>184.9988682859665</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="36">
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>21.18375537072436</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>55.57566235103572</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>98.19508828039909</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4118,13 +4118,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4134,55 +4134,55 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.57944215788615</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C2" t="n">
-        <v>22.57944215788615</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>752.9257720901863</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>509.4769954460863</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.0282188019862</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>678.3417187247995</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C5" t="n">
-        <v>728.6161971483371</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D5" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>241.7186438601369</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.6161971483371</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>485.167420504237</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>485.167420504237</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>485.167420504237</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>485.167420504237</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>485.167420504237</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.0215048700907</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C9" t="n">
-        <v>446.0215048700907</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D9" t="n">
-        <v>297.0870952088395</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E9" t="n">
-        <v>137.849640203384</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W9" t="n">
-        <v>446.0215048700907</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X9" t="n">
-        <v>446.0215048700907</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y9" t="n">
-        <v>446.0215048700907</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>497.8820279860555</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>497.8820279860555</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>262.7299197543128</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V14" t="n">
-        <v>122.6530896684844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V15" t="n">
-        <v>526.7184526376595</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2696759935595</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X15" t="n">
-        <v>75.41817578802664</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5545,22 +5545,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X17" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>657.1497008972277</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C18" t="n">
-        <v>657.1497008972277</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D18" t="n">
-        <v>508.2152912359765</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5609,37 +5609,37 @@
         <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W18" t="n">
-        <v>657.1497008972277</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X18" t="n">
-        <v>657.1497008972277</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y18" t="n">
-        <v>657.1497008972277</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5864,16 +5864,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5898,7 +5898,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6071,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6098,19 +6098,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>485.167420504237</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>241.7186438601369</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>271.3811041200179</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C27" t="n">
-        <v>271.3811041200179</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D27" t="n">
-        <v>271.3811041200179</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>877.5099762486116</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>704.0926316992804</v>
       </c>
       <c r="T27" t="n">
-        <v>514.8298807641179</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="U27" t="n">
-        <v>514.8298807641179</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="V27" t="n">
-        <v>514.8298807641179</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="W27" t="n">
-        <v>271.3811041200179</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X27" t="n">
-        <v>271.3811041200179</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y27" t="n">
-        <v>271.3811041200179</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="28">
@@ -6408,7 +6408,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6572,19 +6572,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,19 +6724,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V35" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W35" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X35" t="n">
-        <v>485.167420504237</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y35" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7046,19 +7046,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7119,10 +7119,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>527.5764290961142</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C38" t="n">
-        <v>284.1276524520142</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D38" t="n">
-        <v>40.6788758079141</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E38" t="n">
-        <v>40.6788758079141</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F38" t="n">
-        <v>40.6788758079141</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G38" t="n">
-        <v>40.6788758079141</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H38" t="n">
-        <v>40.6788758079141</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>527.5764290961142</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>527.5764290961142</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X38" t="n">
-        <v>527.5764290961142</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y38" t="n">
-        <v>527.5764290961142</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7265,13 +7265,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
         <v>19.28114311021272</v>
@@ -7350,34 +7350,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7520,19 +7520,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W44" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X44" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y44" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>933.9571464551993</v>
+        <v>864.8701976516472</v>
       </c>
       <c r="U45" t="n">
-        <v>705.7335281915883</v>
+        <v>636.6465793880363</v>
       </c>
       <c r="V45" t="n">
-        <v>470.5814199598456</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W45" t="n">
-        <v>227.1326433157456</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="46">
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>351.4177255634863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>343.0587526406372</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>114.7662707668343</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>195.0896117727101</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22962,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22989,13 +22989,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6629199992865</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23105,13 +23105,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>27.68640027114436</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23162,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="11">
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T11" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>10.49235770196768</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207155</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>246.9027416247241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>150.1070334262686</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23785,22 +23785,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>80.85147618046305</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,7 +23873,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>219.6976083501262</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>354.079835614828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>151.9490329357426</v>
       </c>
     </row>
     <row r="21">
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>195.0896117727101</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296654</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,22 +24524,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.47612668323873</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>27.27073195224943</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24584,7 +24584,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24648,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>107.53913272771</v>
+        <v>137.4068613958501</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24812,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T32" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>176.6302781386795</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>20.68382749133784</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.5207159210556</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="36">
@@ -25286,10 +25286,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>189.2921341996816</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25523,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25590,10 +25590,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25994,10 +25994,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>101.9696404144225</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498541.5625390692</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.3698922328</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="C2" t="n">
+        <v>65754.15294315931</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65754.15294315929</v>
+      </c>
+      <c r="E2" t="n">
+        <v>65754.15294315931</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65754.15294315929</v>
+      </c>
+      <c r="G2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="D2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223283</v>
       </c>
       <c r="I2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58427.45209245946</v>
+        <v>7172.021946512436</v>
       </c>
       <c r="C6" t="n">
-        <v>22341.97943908829</v>
+        <v>21961.72795075665</v>
       </c>
       <c r="D6" t="n">
-        <v>22341.9794390883</v>
+        <v>21961.72795075664</v>
       </c>
       <c r="E6" t="n">
-        <v>55969.57943908829</v>
+        <v>55589.32795075665</v>
       </c>
       <c r="F6" t="n">
-        <v>55969.57943908831</v>
+        <v>55589.32795075663</v>
       </c>
       <c r="G6" t="n">
-        <v>55969.57943908827</v>
+        <v>13003.35409665238</v>
       </c>
       <c r="H6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="I6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="J6" t="n">
-        <v>-7090.363160017934</v>
+        <v>55418.87088713382</v>
       </c>
       <c r="K6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="L6" t="n">
-        <v>55969.57943908826</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="M6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="N6" t="n">
-        <v>55969.57943908832</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="O6" t="n">
-        <v>55969.57943908827</v>
+        <v>19585.91077966093</v>
       </c>
       <c r="P6" t="n">
-        <v>55969.5794390883</v>
+        <v>66965.78899712471</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36208,7 +36208,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
